--- a/Web/db_data/supplier.xlsx
+++ b/Web/db_data/supplier.xlsx
@@ -102,7 +102,7 @@
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
@@ -346,7 +346,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3">
-        <v>1.0</v>
+        <v>101.0</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
@@ -357,7 +357,7 @@
     </row>
     <row r="3">
       <c r="A3" s="5">
-        <v>2.0</v>
+        <v>102.0</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>4</v>
@@ -368,7 +368,7 @@
     </row>
     <row r="4">
       <c r="A4" s="3">
-        <v>3.0</v>
+        <v>103.0</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>5</v>
@@ -379,7 +379,7 @@
     </row>
     <row r="5">
       <c r="A5" s="5">
-        <v>4.0</v>
+        <v>104.0</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>6</v>
@@ -390,7 +390,7 @@
     </row>
     <row r="6">
       <c r="A6" s="3">
-        <v>5.0</v>
+        <v>105.0</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>7</v>
@@ -401,7 +401,7 @@
     </row>
     <row r="7">
       <c r="A7" s="5">
-        <v>6.0</v>
+        <v>106.0</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>8</v>
@@ -412,7 +412,7 @@
     </row>
     <row r="8">
       <c r="A8" s="3">
-        <v>7.0</v>
+        <v>107.0</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>9</v>
@@ -423,7 +423,7 @@
     </row>
     <row r="9">
       <c r="A9" s="5">
-        <v>8.0</v>
+        <v>108.0</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>10</v>
@@ -434,7 +434,7 @@
     </row>
     <row r="10">
       <c r="A10" s="3">
-        <v>9.0</v>
+        <v>109.0</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>11</v>
